--- a/report/stats.xlsx
+++ b/report/stats.xlsx
@@ -24,23 +24,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
   <si>
-    <t>Positions</t>
+    <t>Game</t>
   </si>
   <si>
-    <t>Agent Score</t>
+    <t>Game Num</t>
   </si>
   <si>
-    <t>Difference</t>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Difference b/w First</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>bucephalus</t>
+  </si>
+  <si>
+    <t>AgentElman</t>
+  </si>
+  <si>
+    <t>westridge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -68,8 +94,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,205 +377,1000 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
+        <v>616</v>
+      </c>
+      <c r="D2">
+        <v>1708.04</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2116.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>619</v>
+      </c>
+      <c r="D3">
+        <v>-1573.05</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>3604.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>621</v>
+      </c>
+      <c r="D4">
+        <v>-260.16000000000003</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>2922.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>623</v>
+      </c>
+      <c r="D5">
+        <v>109.1</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>3489.51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>626</v>
+      </c>
+      <c r="D6">
+        <v>-960.39</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>3292.39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>630</v>
+      </c>
+      <c r="D7">
+        <v>3495.15</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>60.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>633</v>
+      </c>
+      <c r="D8">
+        <v>2840.66</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>2192.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>634</v>
+      </c>
+      <c r="D9">
+        <v>2076.5700000000002</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>721.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>637</v>
+      </c>
+      <c r="D10">
+        <v>-1249.8599999999999</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4199.8599999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>640</v>
+      </c>
+      <c r="D11">
+        <v>2305.23</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>641</v>
+      </c>
+      <c r="D12">
+        <v>3163.09</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>600.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>642</v>
+      </c>
+      <c r="D13">
+        <v>-1053.01</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>2096.37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>646</v>
+      </c>
+      <c r="D14">
+        <v>3425.59</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>428.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>650</v>
+      </c>
+      <c r="D15">
+        <v>1930</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>1807.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>654</v>
+      </c>
+      <c r="D16">
+        <v>3341.38</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>827.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>655</v>
+      </c>
+      <c r="D17">
+        <v>2331.38</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>490.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>613</v>
+      </c>
+      <c r="D20">
+        <v>2436.66</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1713.78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>615</v>
+      </c>
+      <c r="D21">
+        <v>2367.39</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1314.37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>616</v>
+      </c>
+      <c r="D22">
+        <v>845.47</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>2978.73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>623</v>
+      </c>
+      <c r="D23">
+        <v>3598.61</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>624</v>
+      </c>
+      <c r="D24">
+        <v>3265.73</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>1171.17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>627</v>
+      </c>
+      <c r="D25">
+        <v>2061.04</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1119.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>629</v>
+      </c>
+      <c r="D26">
+        <v>-1052.32</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>5368.55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>633</v>
+      </c>
+      <c r="D27">
+        <v>3431.66</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1601.27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>636</v>
+      </c>
+      <c r="D28">
+        <v>3858.19</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>640</v>
+      </c>
+      <c r="D29">
+        <v>634.41999999999996</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>1670.81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>643</v>
+      </c>
+      <c r="D30">
+        <v>389.21</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>1361.83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>644</v>
+      </c>
+      <c r="D31">
+        <v>3046.4</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>646</v>
+      </c>
+      <c r="D32">
+        <v>3854.19</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>649</v>
+      </c>
+      <c r="D33">
+        <v>2612.69</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>654</v>
+      </c>
+      <c r="D34">
+        <v>4168.42</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>656</v>
+      </c>
+      <c r="D35">
+        <v>2365.04</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1463.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>614</v>
+      </c>
+      <c r="D37">
         <v>3640.02</v>
       </c>
-      <c r="E2">
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>618</v>
+      </c>
+      <c r="D38">
+        <v>2517.67</v>
+      </c>
+      <c r="E38">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>2517.67</v>
-      </c>
-      <c r="E3">
+      <c r="F38">
         <v>1358.91</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="C4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>620</v>
+      </c>
+      <c r="D39">
         <v>3108.83</v>
       </c>
-      <c r="E4">
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
         <v>466</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>622</v>
+      </c>
+      <c r="D40">
         <v>3133.48</v>
       </c>
-      <c r="E5">
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
         <v>536.79999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="C6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>626</v>
+      </c>
+      <c r="D41">
         <v>787.68</v>
       </c>
-      <c r="E6">
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
         <v>1544.32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>629</v>
+      </c>
+      <c r="D42">
+        <v>3029.65</v>
+      </c>
+      <c r="E42">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>3029.65</v>
-      </c>
-      <c r="E7">
+      <c r="F42">
         <v>1286.58</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>632</v>
+      </c>
+      <c r="D43">
+        <v>3113.59</v>
+      </c>
+      <c r="E43">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>3113.59</v>
-      </c>
-      <c r="E8">
+      <c r="F43">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="C9">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>634</v>
+      </c>
+      <c r="D44">
         <v>1601.57</v>
       </c>
-      <c r="E9">
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
         <v>1196.3699999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="C10">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>635</v>
+      </c>
+      <c r="D45">
         <v>-227.45</v>
       </c>
-      <c r="E10">
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
         <v>2593.3200000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>637</v>
+      </c>
+      <c r="D46">
+        <v>1183.4100000000001</v>
+      </c>
+      <c r="E46">
         <v>3</v>
       </c>
-      <c r="C11">
-        <v>1183.4100000000001</v>
-      </c>
-      <c r="E11">
+      <c r="F46">
         <v>1766.59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="C12">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>642</v>
+      </c>
+      <c r="D47">
         <v>611.42999999999995</v>
       </c>
-      <c r="E12">
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
         <v>431.93</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>643</v>
+      </c>
+      <c r="D48">
+        <v>674.42</v>
+      </c>
+      <c r="E48">
         <v>3</v>
       </c>
-      <c r="C13">
-        <v>674.42</v>
-      </c>
-      <c r="E13">
+      <c r="F48">
         <v>1076.6199999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>647</v>
+      </c>
+      <c r="D49">
+        <v>2451.2199999999998</v>
+      </c>
+      <c r="E49">
         <v>3</v>
       </c>
-      <c r="C14">
-        <v>2451.2199999999998</v>
-      </c>
-      <c r="E14">
+      <c r="F49">
         <v>569.28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="C15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>650</v>
+      </c>
+      <c r="D50">
         <v>3657</v>
       </c>
-      <c r="E15">
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
         <v>80.8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>653</v>
+      </c>
+      <c r="D51">
+        <v>4475.46</v>
+      </c>
+      <c r="E51">
         <v>1</v>
       </c>
-      <c r="C16">
-        <v>4475.46</v>
-      </c>
-      <c r="E16">
+      <c r="F51">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>656</v>
+      </c>
+      <c r="D52">
+        <v>703.02</v>
+      </c>
+      <c r="E52">
         <v>3</v>
       </c>
-      <c r="C17">
-        <v>703.02</v>
-      </c>
-      <c r="E17">
+      <c r="F52">
         <v>3125.37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/report/stats.xlsx
+++ b/report/stats.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Java\AgentElman\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fuzzy Dingo\Documents\COMP6203\AgentElman\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="32">
   <si>
     <t>Game</t>
   </si>
@@ -118,6 +118,9 @@
   <si>
     <t>Avengers</t>
   </si>
+  <si>
+    <t>Agent Name</t>
+  </si>
 </sst>
 </file>
 
@@ -206,6 +209,4232 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tic-tac</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4150.4399999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3453.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3190.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3310.085</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3284.2159999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3456.21833333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3470.3928571400002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3402.0425</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3286.9122222199999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3362.0070000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3215.5554545499999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3262.3991666699999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3257.8323076900001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3297.6864285699999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3275.72</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3310.2618750000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rex-ready</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$19:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$19:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3059.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3871.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3873.4333333300001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3630.4375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3791.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3512.7783333299999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3411.8528571400002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3325.3825000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3207.8111111100002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3051.9859999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3112.0163636399998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3029.9208333299998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2990.2461538500002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3077.8357142899999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3118.11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3099.5756249999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>miniagent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$36:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$36:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2525.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1938.7449999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2086.1533333299999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2372.4324999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2502.5059999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2410.6216666700002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2413.07285714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2610.8537500000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2124.89555556</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2268.8310000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2379.94272727</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2531.0641666699998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2599.7892307699999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2741.57857143</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2836.1959999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2698.1581249999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TheGreaterFool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$53:$I$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$53:$H$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2004.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1391.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1940.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2171.3425000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1607.7260000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1743.7616666700001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1930.33285714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2314.61625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2383.74777778</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2440.373</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2560.63909091</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2632.5858333299998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2567.87923077</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2563.88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2642.1413333300002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2659.6350000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Penelope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$70:$I$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$70:$H$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3681.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3358.4349999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3430.5666666699999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2887.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2776.1759999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2575.7316666699999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2575.57285714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2603.3687500000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2558.5988888900001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2631.4580000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2659.33454545</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2524.67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2548.8953846200002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2504.3842857099999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2528.0573333299999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2492.5543750000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$87</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bucephalus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$87:$I$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$87:$H$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2436.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2402.0250000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1883.1733333300001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2312.0324999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2502.7719999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2429.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1931.7971428599999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2119.2800000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2312.4922222199998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2144.6849999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1985.0963636399999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2073.5383333300001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2210.5115384599999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2239.2385714299999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2367.85066667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2367.6750000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AgentElman</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$104:$I$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$104:$H$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3640.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3078.8449999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3088.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2637.5360000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2702.88833333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2761.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2616.5612500000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2300.56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2188.8449999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2045.44363636</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1931.1916666699999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1971.1938461499999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2091.6085714300002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2250.5320000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2153.8125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="376006160"/>
+        <c:axId val="376003360"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$121</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Cortana</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$121:$H$136</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>2227.35</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2090.3200000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2070.5466666699999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2120.4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2228.4079999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2427.1333333299999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2371.82857143</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2177.21875</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2058.4</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1989.7090000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1805.6509090899999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1981.59</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1974.85384615</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1914.1014285700001</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2007.7093333299999</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2124.8156250000002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$138</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>westridge</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$138:$I$153</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>43</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$138:$H$153</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>1708.04</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>67.495000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-41.723333333299998</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-4.0175000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-195.292</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>419.78166666700002</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>765.62142857100002</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>929.49</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>687.34</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>849.12900000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1059.48909091</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>883.44749999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1078.99692308</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1139.78285714</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1286.556</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1351.8575000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$155</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>AbsMTree</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$155:$I$170</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>44</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$155:$H$170</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>1551.27</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-818.78</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-490.563333333</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>299.90249999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>551.92200000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>488.99833333300001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>833.89</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>875.40499999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>957.61111111100001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1115.67</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1144.9718181799999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1220.6775</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1413.9715384599999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1421.5214285699999</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1416.6066666700001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1335.2850000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$172</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>aaaaaaaa</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$172:$I$187</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>42</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$172:$H$187</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>1858.31</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1422.01</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1477.00666667</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1682.9</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1770.75</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1257.00333333</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1124.0742857099999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1274.6187500000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1026.77</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1211.663</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>951.92272727299996</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1011.31083333</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1002.73384615</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1151.1099999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1280.9126666699999</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1250.8143749999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$189</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>AgentSmith</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$189:$I$204</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>43</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$189:$H$204</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>-4803.9799999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-1746.77</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-1638.93</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-1440.2474999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-1274.5820000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-680.16833333299996</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-165.63428571399999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>484.18624999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>348.004444444</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>136.279</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>425.69454545500002</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>607.31916666699999</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>775.74923076899995</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>919.33071428599999</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1039.06333333</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1045.605</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="12"/>
+                <c:order val="12"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$206</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>HAL</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$206:$I$221</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>40</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$206:$H$221</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>1733.47</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2024.41</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>46.44</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-267.42750000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>391.28199999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>593.45166666700004</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>750.304285714</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>937.68875000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>396.89</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>654.40899999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>439.173636364</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>324.22916666700002</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>540.32153846200003</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>636.53214285700005</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>846.12333333300001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>975.00250000000005</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="13"/>
+                <c:order val="13"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$223</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>PostTraumaticAgent</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$223:$I$238</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>44</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$223:$H$238</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>-11.99</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-4107.6149999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-1915.63</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-1010.4525</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-143.44999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>91.648333333300002</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>161.198571429</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>380.33749999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>404.60333333300002</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>547.30100000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>635.29363636400001</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>727.01916666700004</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>841.18615384600002</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>910.87642857100002</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>995.5</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>869.18187499999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="14"/>
+                <c:order val="14"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$240</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Hermes</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$240:$I$255</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>43</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$240:$H$255</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>2116.83</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2970.5149999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2047.44</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2364.6424999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2585.5639999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2703.44</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2123.56571429</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1806.2474999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1929.91555556</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1955.3140000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1812.62818182</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1700.22666667</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1457.57769231</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1229.2978571399999</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>884.73133333299995</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>800.82</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="15"/>
+                <c:order val="15"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$257</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Avengers</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$257:$I$272</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>42</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$257:$H$272</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-287.10777777800001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-186.596</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-281.11636363600002</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-207.940833333</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-207.70461538500001</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-86.856428571400002</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>94.378666666699999</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>301.22687500000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="16"/>
+                <c:order val="16"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$274</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Desolution</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$274:$I$289</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>44</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$274:$H$289</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>-82.8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-1860.69</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-210.55333333300001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>514.29</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>894.34199999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1046.0050000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>542.99714285699997</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>642.84124999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>310.78444444399997</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>427.80200000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>589.16818181799999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>343.09166666700003</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>502.13230769199998</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>509.31</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>619.45799999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>220.16374999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="17"/>
+                <c:order val="17"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$291</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Wukong</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$291:$I$306</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>44</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$291:$H$306</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>-1494.66</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-938.97</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-2259.30333333</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-1686.4949999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-1141.5899999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-721.90333333299998</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-549.18857142900004</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-480.54</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-986.65111111099998</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-686.87599999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-592.67999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-372.59333333299998</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-46.383076923099999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-80.954285714299999</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>197.60066666700001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>123.816875</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="18"/>
+                <c:order val="18"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$308</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>SexyAgent</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$308:$I$323</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>41</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$308:$H$323</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>-1014.53</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-1742.94</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>18.61</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-1989.6949999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-1458.1579999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-1358.9449999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-1607.95428571</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-1546.0050000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-1873.3855555600001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-1686.047</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-1344.80636364</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-1098.8066666699999</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-837.24076923099994</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-715.63928571400004</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-471.56733333300002</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>-345.96</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="19"/>
+                <c:order val="19"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$325</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>NAMP</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$325:$I$340</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>43</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$325:$H$340</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>1505.71</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>840.85500000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-4211.7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-2932.0149999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-2221.35</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-1550.19</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-877.33285714299996</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-538.02750000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-816.26555555599998</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-1108.393</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-923.34</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-1102.1191666699999</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-1007.5138461499999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-788.56214285700003</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-664.23</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>-611.90750000000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="20"/>
+                <c:order val="20"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$342</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>CrazySaver</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$342:$I$357</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>38</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$342:$H$357</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>239.92</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-1021.21</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>315.29333333300002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-1203.2175</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-1413.172</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-1049.8599999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-609</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-380.1875</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-829.78444444399997</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-624.33799999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-988.75909090899995</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-1072.0999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-757.28461538500005</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-717.18499999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-701.73599999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>-694.87687500000004</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="21"/>
+                <c:order val="21"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$359</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Agent-HN</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$359:$I$374</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>42</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$359:$H$374</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>-2531.09</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-278.91500000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-1739.15</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-2385.5450000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-2276.288</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-9216.7749999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-8076.7428571399996</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-7062.2312499999998</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-6096.0877777799997</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-5499.5910000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-4718.4709090899996</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-4302.0275000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-3818.9346153800002</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-3456.1178571400001</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-3132.20533333</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>-2747.183125</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="376006160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376003360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="376003360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="376006160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,44 +4700,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J375"/>
+  <dimension ref="A1:M375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B142" workbookViewId="0">
+      <selection activeCell="U165" sqref="U165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -533,8 +4770,18 @@
       <c r="H2">
         <v>4150.4399999999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>D2-612</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>4150.4399999999996</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -559,8 +4806,18 @@
       <c r="H3">
         <v>3453.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="0">D3-612</f>
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>3453.7</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -585,8 +4842,18 @@
       <c r="H4">
         <v>3190.02</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>3190.02</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -611,8 +4878,18 @@
       <c r="H5">
         <v>3310.085</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>3310.085</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -637,8 +4914,18 @@
       <c r="H6">
         <v>3284.2159999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>3284.2159999999999</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -663,8 +4950,18 @@
       <c r="H7">
         <v>3456.21833333</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>3456.21833333</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -689,8 +4986,18 @@
       <c r="H8">
         <v>3470.3928571400002</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <v>3470.3928571400002</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -715,8 +5022,18 @@
       <c r="H9">
         <v>3402.0425</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>3402.0425</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -741,8 +5058,18 @@
       <c r="H10">
         <v>3286.9122222199999</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="J10">
+        <v>3286.9122222199999</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -767,8 +5094,18 @@
       <c r="H11">
         <v>3362.0070000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="J11">
+        <v>3362.0070000000001</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -793,8 +5130,18 @@
       <c r="H12">
         <v>3215.5554545499999</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="J12">
+        <v>3215.5554545499999</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -819,8 +5166,18 @@
       <c r="H13">
         <v>3262.3991666699999</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J13">
+        <v>3262.3991666699999</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -845,8 +5202,18 @@
       <c r="H14">
         <v>3257.8323076900001</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="J14">
+        <v>3257.8323076900001</v>
+      </c>
+      <c r="M14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -871,8 +5238,18 @@
       <c r="H15">
         <v>3297.6864285699999</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="J15">
+        <v>3297.6864285699999</v>
+      </c>
+      <c r="M15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -897,8 +5274,18 @@
       <c r="H16">
         <v>3275.72</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J16">
+        <v>3275.72</v>
+      </c>
+      <c r="M16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -923,8 +5310,18 @@
       <c r="H17">
         <v>3310.2618750000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="J17">
+        <v>3310.2618750000001</v>
+      </c>
+      <c r="M17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -940,8 +5337,12 @@
       <c r="G18" s="1">
         <v>259.83125000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18"/>
+      <c r="M18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -966,8 +5367,15 @@
       <c r="H19">
         <v>3059.04</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -992,8 +5400,15 @@
       <c r="H20">
         <v>3871.86</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1018,8 +5433,15 @@
       <c r="H21">
         <v>3873.4333333300001</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1044,8 +5466,15 @@
       <c r="H22">
         <v>3630.4375</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1070,8 +5499,15 @@
       <c r="H23">
         <v>3791.73</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1096,8 +5532,15 @@
       <c r="H24">
         <v>3512.7783333299999</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="M24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1122,8 +5565,15 @@
       <c r="H25">
         <v>3411.8528571400002</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1148,8 +5598,15 @@
       <c r="H26">
         <v>3325.3825000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="M26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1174,8 +5631,15 @@
       <c r="H27">
         <v>3207.8111111100002</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="M27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1200,8 +5664,15 @@
       <c r="H28">
         <v>3051.9859999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="M28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1226,8 +5697,15 @@
       <c r="H29">
         <v>3112.0163636399998</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="M29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1252,8 +5730,15 @@
       <c r="H30">
         <v>3029.9208333299998</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="M30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1278,8 +5763,15 @@
       <c r="H31">
         <v>2990.2461538500002</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1304,8 +5796,15 @@
       <c r="H32">
         <v>3077.8357142899999</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="M32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1330,8 +5829,15 @@
       <c r="H33">
         <v>3118.11</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="M33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1356,8 +5862,15 @@
       <c r="H34">
         <v>3099.5756249999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="M34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -1373,8 +5886,12 @@
       <c r="G35" s="1">
         <v>453.24</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35"/>
+      <c r="M35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1399,8 +5916,15 @@
       <c r="H36">
         <v>2525.86</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -1425,8 +5949,15 @@
       <c r="H37">
         <v>1938.7449999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -1451,8 +5982,15 @@
       <c r="H38">
         <v>2086.1533333299999</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1477,8 +6015,15 @@
       <c r="H39">
         <v>2372.4324999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -1503,8 +6048,15 @@
       <c r="H40">
         <v>2502.5059999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -1529,8 +6081,15 @@
       <c r="H41">
         <v>2410.6216666700002</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -1555,8 +6114,15 @@
       <c r="H42">
         <v>2413.07285714</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1581,8 +6147,15 @@
       <c r="H43">
         <v>2610.8537500000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -1607,8 +6180,15 @@
       <c r="H44">
         <v>2124.89555556</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="M44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -1633,8 +6213,15 @@
       <c r="H45">
         <v>2268.8310000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="M45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -1659,8 +6246,12 @@
       <c r="H46">
         <v>2379.94272727</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -1685,8 +6276,12 @@
       <c r="H47">
         <v>2531.0641666699998</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -1710,6 +6305,10 @@
       </c>
       <c r="H48">
         <v>2599.7892307699999</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -1737,6 +6336,10 @@
       <c r="H49">
         <v>2741.57857143</v>
       </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -1763,6 +6366,10 @@
       <c r="H50">
         <v>2836.1959999999999</v>
       </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -1789,6 +6396,10 @@
       <c r="H51">
         <v>2698.1581249999999</v>
       </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -1806,6 +6417,7 @@
       <c r="G52" s="1">
         <v>1137.4143750000001</v>
       </c>
+      <c r="I52"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
@@ -1829,6 +6441,10 @@
       <c r="H53">
         <v>2004.03</v>
       </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -1853,6 +6469,10 @@
       <c r="H54">
         <v>1391.69</v>
       </c>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -1877,6 +6497,10 @@
       <c r="H55">
         <v>1940.36</v>
       </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
@@ -1900,6 +6524,10 @@
       <c r="H56">
         <v>2171.3425000000002</v>
       </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
@@ -1923,6 +6551,10 @@
       <c r="H57">
         <v>1607.7260000000001</v>
       </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
@@ -1946,6 +6578,10 @@
       <c r="H58">
         <v>1743.7616666700001</v>
       </c>
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
@@ -1969,6 +6605,10 @@
       <c r="H59">
         <v>1930.33285714</v>
       </c>
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
@@ -1992,6 +6632,10 @@
       <c r="H60">
         <v>2314.61625</v>
       </c>
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
@@ -2015,6 +6659,10 @@
       <c r="H61">
         <v>2383.74777778</v>
       </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
@@ -2038,6 +6686,10 @@
       <c r="H62">
         <v>2440.373</v>
       </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
@@ -2061,6 +6713,10 @@
       <c r="H63">
         <v>2560.63909091</v>
       </c>
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
@@ -2084,8 +6740,12 @@
       <c r="H64">
         <v>2632.5858333299998</v>
       </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>15</v>
       </c>
@@ -2107,8 +6767,12 @@
       <c r="H65">
         <v>2567.87923077</v>
       </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>15</v>
       </c>
@@ -2130,8 +6794,12 @@
       <c r="H66">
         <v>2563.88</v>
       </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>15</v>
       </c>
@@ -2153,8 +6821,12 @@
       <c r="H67">
         <v>2642.1413333300002</v>
       </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <f t="shared" ref="I67:I130" si="1">D67-612</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>15</v>
       </c>
@@ -2176,8 +6848,12 @@
       <c r="H68">
         <v>2659.6350000000002</v>
       </c>
-    </row>
-    <row r="69" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>9</v>
       </c>
@@ -2190,8 +6866,9 @@
       <c r="G69" s="1">
         <v>1143.1600000000001</v>
       </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I69"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>16</v>
       </c>
@@ -2213,8 +6890,12 @@
       <c r="H70">
         <v>3681.76</v>
       </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>16</v>
       </c>
@@ -2236,8 +6917,12 @@
       <c r="H71">
         <v>3358.4349999999999</v>
       </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>16</v>
       </c>
@@ -2259,8 +6944,12 @@
       <c r="H72">
         <v>3430.5666666699999</v>
       </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>16</v>
       </c>
@@ -2282,8 +6971,12 @@
       <c r="H73">
         <v>2887.22</v>
       </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>16</v>
       </c>
@@ -2305,8 +6998,12 @@
       <c r="H74">
         <v>2776.1759999999999</v>
       </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>16</v>
       </c>
@@ -2328,8 +7025,12 @@
       <c r="H75">
         <v>2575.7316666699999</v>
       </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>16</v>
       </c>
@@ -2351,8 +7052,12 @@
       <c r="H76">
         <v>2575.57285714</v>
       </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>16</v>
       </c>
@@ -2374,8 +7079,12 @@
       <c r="H77">
         <v>2603.3687500000001</v>
       </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>16</v>
       </c>
@@ -2397,8 +7106,12 @@
       <c r="H78">
         <v>2558.5988888900001</v>
       </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>16</v>
       </c>
@@ -2420,8 +7133,12 @@
       <c r="H79">
         <v>2631.4580000000001</v>
       </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>16</v>
       </c>
@@ -2443,8 +7160,12 @@
       <c r="H80">
         <v>2659.33454545</v>
       </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>16</v>
       </c>
@@ -2466,8 +7187,12 @@
       <c r="H81">
         <v>2524.67</v>
       </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>16</v>
       </c>
@@ -2489,8 +7214,12 @@
       <c r="H82">
         <v>2548.8953846200002</v>
       </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>16</v>
       </c>
@@ -2512,8 +7241,12 @@
       <c r="H83">
         <v>2504.3842857099999</v>
       </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>16</v>
       </c>
@@ -2535,8 +7268,12 @@
       <c r="H84">
         <v>2528.0573333299999</v>
       </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>16</v>
       </c>
@@ -2558,8 +7295,12 @@
       <c r="H85">
         <v>2492.5543750000002</v>
       </c>
-    </row>
-    <row r="86" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>9</v>
       </c>
@@ -2572,8 +7313,9 @@
       <c r="G86" s="1">
         <v>786.16250000000002</v>
       </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I86"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>6</v>
       </c>
@@ -2595,8 +7337,12 @@
       <c r="H87">
         <v>2436.66</v>
       </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>6</v>
       </c>
@@ -2618,8 +7364,12 @@
       <c r="H88">
         <v>2402.0250000000001</v>
       </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>6</v>
       </c>
@@ -2641,8 +7391,12 @@
       <c r="H89">
         <v>1883.1733333300001</v>
       </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>6</v>
       </c>
@@ -2664,8 +7418,12 @@
       <c r="H90">
         <v>2312.0324999999998</v>
       </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>6</v>
       </c>
@@ -2687,8 +7445,12 @@
       <c r="H91">
         <v>2502.7719999999999</v>
       </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>6</v>
       </c>
@@ -2710,8 +7472,12 @@
       <c r="H92">
         <v>2429.15</v>
       </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>6</v>
       </c>
@@ -2733,8 +7499,12 @@
       <c r="H93">
         <v>1931.7971428599999</v>
       </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>6</v>
       </c>
@@ -2756,8 +7526,12 @@
       <c r="H94">
         <v>2119.2800000000002</v>
       </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>6</v>
       </c>
@@ -2779,8 +7553,12 @@
       <c r="H95">
         <v>2312.4922222199998</v>
       </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>6</v>
       </c>
@@ -2802,8 +7580,12 @@
       <c r="H96">
         <v>2144.6849999999999</v>
       </c>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>6</v>
       </c>
@@ -2825,8 +7607,12 @@
       <c r="H97">
         <v>1985.0963636399999</v>
       </c>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>6</v>
       </c>
@@ -2848,8 +7634,12 @@
       <c r="H98">
         <v>2073.5383333300001</v>
       </c>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>6</v>
       </c>
@@ -2871,8 +7661,12 @@
       <c r="H99">
         <v>2210.5115384599999</v>
       </c>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>6</v>
       </c>
@@ -2894,8 +7688,12 @@
       <c r="H100">
         <v>2239.2385714299999</v>
       </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>6</v>
       </c>
@@ -2917,8 +7715,12 @@
       <c r="H101">
         <v>2367.85066667</v>
       </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>6</v>
       </c>
@@ -2940,8 +7742,12 @@
       <c r="H102">
         <v>2367.6750000000002</v>
       </c>
-    </row>
-    <row r="103" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>9</v>
       </c>
@@ -2954,8 +7760,9 @@
       <c r="G103" s="1">
         <v>1306.9100000000001</v>
       </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I103"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>7</v>
       </c>
@@ -2977,8 +7784,12 @@
       <c r="H104">
         <v>3640.02</v>
       </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>7</v>
       </c>
@@ -3000,8 +7811,12 @@
       <c r="H105">
         <v>3078.8449999999998</v>
       </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>7</v>
       </c>
@@ -3023,8 +7838,12 @@
       <c r="H106">
         <v>3088.84</v>
       </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>7</v>
       </c>
@@ -3046,8 +7865,12 @@
       <c r="H107">
         <v>3100</v>
       </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>7</v>
       </c>
@@ -3069,8 +7892,12 @@
       <c r="H108">
         <v>2637.5360000000001</v>
       </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>7</v>
       </c>
@@ -3092,8 +7919,12 @@
       <c r="H109">
         <v>2702.88833333</v>
       </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>7</v>
       </c>
@@ -3115,8 +7946,12 @@
       <c r="H110">
         <v>2761.56</v>
       </c>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>7</v>
       </c>
@@ -3138,8 +7973,12 @@
       <c r="H111">
         <v>2616.5612500000002</v>
       </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>7</v>
       </c>
@@ -3161,8 +8000,12 @@
       <c r="H112">
         <v>2300.56</v>
       </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>7</v>
       </c>
@@ -3184,8 +8027,12 @@
       <c r="H113">
         <v>2188.8449999999998</v>
       </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>7</v>
       </c>
@@ -3207,8 +8054,12 @@
       <c r="H114">
         <v>2045.44363636</v>
       </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>7</v>
       </c>
@@ -3230,8 +8081,12 @@
       <c r="H115">
         <v>1931.1916666699999</v>
       </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>7</v>
       </c>
@@ -3253,8 +8108,12 @@
       <c r="H116">
         <v>1971.1938461499999</v>
       </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>7</v>
       </c>
@@ -3276,8 +8135,12 @@
       <c r="H117">
         <v>2091.6085714300002</v>
       </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>7</v>
       </c>
@@ -3299,8 +8162,12 @@
       <c r="H118">
         <v>2250.5320000000002</v>
       </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>7</v>
       </c>
@@ -3322,8 +8189,12 @@
       <c r="H119">
         <v>2153.8125</v>
       </c>
-    </row>
-    <row r="120" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>9</v>
       </c>
@@ -3336,8 +8207,9 @@
       <c r="G120" s="1">
         <v>1002.055625</v>
       </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I120"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>17</v>
       </c>
@@ -3359,8 +8231,12 @@
       <c r="H121">
         <v>2227.35</v>
       </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I121">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>17</v>
       </c>
@@ -3382,8 +8258,12 @@
       <c r="H122">
         <v>2090.3200000000002</v>
       </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>17</v>
       </c>
@@ -3405,8 +8285,12 @@
       <c r="H123">
         <v>2070.5466666699999</v>
       </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>17</v>
       </c>
@@ -3428,8 +8312,12 @@
       <c r="H124">
         <v>2120.4</v>
       </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>17</v>
       </c>
@@ -3451,8 +8339,12 @@
       <c r="H125">
         <v>2228.4079999999999</v>
       </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I125">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>17</v>
       </c>
@@ -3474,8 +8366,12 @@
       <c r="H126">
         <v>2427.1333333299999</v>
       </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>17</v>
       </c>
@@ -3497,8 +8393,12 @@
       <c r="H127">
         <v>2371.82857143</v>
       </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>17</v>
       </c>
@@ -3520,8 +8420,12 @@
       <c r="H128">
         <v>2177.21875</v>
       </c>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>17</v>
       </c>
@@ -3543,8 +8447,12 @@
       <c r="H129">
         <v>2058.4</v>
       </c>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I129">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>17</v>
       </c>
@@ -3566,8 +8474,12 @@
       <c r="H130">
         <v>1989.7090000000001</v>
       </c>
-    </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I130">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>17</v>
       </c>
@@ -3589,8 +8501,12 @@
       <c r="H131">
         <v>1805.6509090899999</v>
       </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I131">
+        <f t="shared" ref="I131:I194" si="2">D131-612</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>17</v>
       </c>
@@ -3612,8 +8528,12 @@
       <c r="H132">
         <v>1981.59</v>
       </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I132">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>17</v>
       </c>
@@ -3635,8 +8555,12 @@
       <c r="H133">
         <v>1974.85384615</v>
       </c>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I133">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>17</v>
       </c>
@@ -3658,8 +8582,12 @@
       <c r="H134">
         <v>1914.1014285700001</v>
       </c>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I134">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>17</v>
       </c>
@@ -3681,8 +8609,12 @@
       <c r="H135">
         <v>2007.7093333299999</v>
       </c>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I135">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>17</v>
       </c>
@@ -3704,8 +8636,12 @@
       <c r="H136">
         <v>2124.8156250000002</v>
       </c>
-    </row>
-    <row r="137" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>9</v>
       </c>
@@ -3718,8 +8654,9 @@
       <c r="G137" s="1">
         <v>1226.34375</v>
       </c>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I137"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>8</v>
       </c>
@@ -3741,8 +8678,12 @@
       <c r="H138">
         <v>1708.04</v>
       </c>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I138">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>8</v>
       </c>
@@ -3764,8 +8705,12 @@
       <c r="H139">
         <v>67.495000000000005</v>
       </c>
-    </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I139">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>8</v>
       </c>
@@ -3787,8 +8732,12 @@
       <c r="H140">
         <v>-41.723333333299998</v>
       </c>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I140">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>8</v>
       </c>
@@ -3810,8 +8759,12 @@
       <c r="H141">
         <v>-4.0175000000000001</v>
       </c>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I141">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>8</v>
       </c>
@@ -3833,8 +8786,12 @@
       <c r="H142">
         <v>-195.292</v>
       </c>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I142">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>8</v>
       </c>
@@ -3856,8 +8813,12 @@
       <c r="H143">
         <v>419.78166666700002</v>
       </c>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I143">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>8</v>
       </c>
@@ -3879,8 +8840,12 @@
       <c r="H144">
         <v>765.62142857100002</v>
       </c>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I144">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>8</v>
       </c>
@@ -3902,8 +8867,12 @@
       <c r="H145">
         <v>929.49</v>
       </c>
-    </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I145">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>8</v>
       </c>
@@ -3925,8 +8894,12 @@
       <c r="H146">
         <v>687.34</v>
       </c>
-    </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I146">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>8</v>
       </c>
@@ -3948,8 +8921,12 @@
       <c r="H147">
         <v>849.12900000000002</v>
       </c>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I147">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>8</v>
       </c>
@@ -3971,8 +8948,12 @@
       <c r="H148">
         <v>1059.48909091</v>
       </c>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I148">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>8</v>
       </c>
@@ -3994,8 +8975,12 @@
       <c r="H149">
         <v>883.44749999999999</v>
       </c>
-    </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I149">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>8</v>
       </c>
@@ -4017,8 +9002,12 @@
       <c r="H150">
         <v>1078.99692308</v>
       </c>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I150">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>8</v>
       </c>
@@ -4040,8 +9029,12 @@
       <c r="H151">
         <v>1139.78285714</v>
       </c>
-    </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I151">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>8</v>
       </c>
@@ -4063,8 +9056,12 @@
       <c r="H152">
         <v>1286.556</v>
       </c>
-    </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I152">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>8</v>
       </c>
@@ -4086,8 +9083,12 @@
       <c r="H153">
         <v>1351.8575000000001</v>
       </c>
-    </row>
-    <row r="154" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I153">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>9</v>
       </c>
@@ -4100,8 +9101,9 @@
       <c r="G154" s="1">
         <v>1803.0574999999999</v>
       </c>
-    </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I154"/>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>18</v>
       </c>
@@ -4123,8 +9125,12 @@
       <c r="H155">
         <v>1551.27</v>
       </c>
-    </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I155">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>18</v>
       </c>
@@ -4146,8 +9152,12 @@
       <c r="H156">
         <v>-818.78</v>
       </c>
-    </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I156">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>18</v>
       </c>
@@ -4169,8 +9179,12 @@
       <c r="H157">
         <v>-490.563333333</v>
       </c>
-    </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I157">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>18</v>
       </c>
@@ -4192,8 +9206,12 @@
       <c r="H158">
         <v>299.90249999999997</v>
       </c>
-    </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I158">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>18</v>
       </c>
@@ -4215,8 +9233,12 @@
       <c r="H159">
         <v>551.92200000000003</v>
       </c>
-    </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I159">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>18</v>
       </c>
@@ -4238,8 +9260,12 @@
       <c r="H160">
         <v>488.99833333300001</v>
       </c>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I160">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>18</v>
       </c>
@@ -4261,8 +9287,12 @@
       <c r="H161">
         <v>833.89</v>
       </c>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I161">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>18</v>
       </c>
@@ -4284,8 +9314,12 @@
       <c r="H162">
         <v>875.40499999999997</v>
       </c>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I162">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>18</v>
       </c>
@@ -4307,8 +9341,12 @@
       <c r="H163">
         <v>957.61111111100001</v>
       </c>
-    </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I163">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>18</v>
       </c>
@@ -4330,8 +9368,12 @@
       <c r="H164">
         <v>1115.67</v>
       </c>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I164">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>18</v>
       </c>
@@ -4353,8 +9395,12 @@
       <c r="H165">
         <v>1144.9718181799999</v>
       </c>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I165">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>18</v>
       </c>
@@ -4376,8 +9422,12 @@
       <c r="H166">
         <v>1220.6775</v>
       </c>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I166">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>18</v>
       </c>
@@ -4399,8 +9449,12 @@
       <c r="H167">
         <v>1413.9715384599999</v>
       </c>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I167">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>18</v>
       </c>
@@ -4422,8 +9476,12 @@
       <c r="H168">
         <v>1421.5214285699999</v>
       </c>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I168">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>18</v>
       </c>
@@ -4445,8 +9503,12 @@
       <c r="H169">
         <v>1416.6066666700001</v>
       </c>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I169">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>18</v>
       </c>
@@ -4468,8 +9530,12 @@
       <c r="H170">
         <v>1335.2850000000001</v>
       </c>
-    </row>
-    <row r="171" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I170">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>9</v>
       </c>
@@ -4482,8 +9548,9 @@
       <c r="G171" s="1">
         <v>1782.7149999999999</v>
       </c>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I171"/>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>19</v>
       </c>
@@ -4505,8 +9572,12 @@
       <c r="H172">
         <v>1858.31</v>
       </c>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I172">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>19</v>
       </c>
@@ -4528,8 +9599,12 @@
       <c r="H173">
         <v>1422.01</v>
       </c>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I173">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>19</v>
       </c>
@@ -4551,8 +9626,12 @@
       <c r="H174">
         <v>1477.00666667</v>
       </c>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I174">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>19</v>
       </c>
@@ -4574,8 +9653,12 @@
       <c r="H175">
         <v>1682.9</v>
       </c>
-    </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I175">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>19</v>
       </c>
@@ -4597,8 +9680,12 @@
       <c r="H176">
         <v>1770.75</v>
       </c>
-    </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I176">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>19</v>
       </c>
@@ -4620,8 +9707,12 @@
       <c r="H177">
         <v>1257.00333333</v>
       </c>
-    </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I177">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>19</v>
       </c>
@@ -4643,8 +9734,12 @@
       <c r="H178">
         <v>1124.0742857099999</v>
       </c>
-    </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I178">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>19</v>
       </c>
@@ -4666,8 +9761,12 @@
       <c r="H179">
         <v>1274.6187500000001</v>
       </c>
-    </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I179">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>19</v>
       </c>
@@ -4689,8 +9788,12 @@
       <c r="H180">
         <v>1026.77</v>
       </c>
-    </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I180">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>19</v>
       </c>
@@ -4712,8 +9815,12 @@
       <c r="H181">
         <v>1211.663</v>
       </c>
-    </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I181">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>19</v>
       </c>
@@ -4735,8 +9842,12 @@
       <c r="H182">
         <v>951.92272727299996</v>
       </c>
-    </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I182">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>19</v>
       </c>
@@ -4758,8 +9869,12 @@
       <c r="H183">
         <v>1011.31083333</v>
       </c>
-    </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I183">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>19</v>
       </c>
@@ -4781,8 +9896,12 @@
       <c r="H184">
         <v>1002.73384615</v>
       </c>
-    </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I184">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>19</v>
       </c>
@@ -4804,8 +9923,12 @@
       <c r="H185">
         <v>1151.1099999999999</v>
       </c>
-    </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I185">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>19</v>
       </c>
@@ -4827,8 +9950,12 @@
       <c r="H186">
         <v>1280.9126666699999</v>
       </c>
-    </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I186">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>19</v>
       </c>
@@ -4850,8 +9977,12 @@
       <c r="H187">
         <v>1250.8143749999999</v>
       </c>
-    </row>
-    <row r="188" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I187">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
         <v>9</v>
       </c>
@@ -4864,8 +9995,9 @@
       <c r="G188" s="1">
         <v>2215.368125</v>
       </c>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I188"/>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>20</v>
       </c>
@@ -4887,8 +10019,12 @@
       <c r="H189">
         <v>-4803.9799999999996</v>
       </c>
-    </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I189">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>20</v>
       </c>
@@ -4910,8 +10046,12 @@
       <c r="H190">
         <v>-1746.77</v>
       </c>
-    </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I190">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>20</v>
       </c>
@@ -4933,8 +10073,12 @@
       <c r="H191">
         <v>-1638.93</v>
       </c>
-    </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I191">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>20</v>
       </c>
@@ -4956,8 +10100,12 @@
       <c r="H192">
         <v>-1440.2474999999999</v>
       </c>
-    </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I192">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>20</v>
       </c>
@@ -4979,8 +10127,12 @@
       <c r="H193">
         <v>-1274.5820000000001</v>
       </c>
-    </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I193">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>20</v>
       </c>
@@ -5002,8 +10154,12 @@
       <c r="H194">
         <v>-680.16833333299996</v>
       </c>
-    </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I194">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>20</v>
       </c>
@@ -5025,8 +10181,12 @@
       <c r="H195">
         <v>-165.63428571399999</v>
       </c>
-    </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I195">
+        <f t="shared" ref="I195:I258" si="3">D195-612</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>20</v>
       </c>
@@ -5048,8 +10208,12 @@
       <c r="H196">
         <v>484.18624999999997</v>
       </c>
-    </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I196">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>20</v>
       </c>
@@ -5071,8 +10235,12 @@
       <c r="H197">
         <v>348.004444444</v>
       </c>
-    </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I197">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>20</v>
       </c>
@@ -5094,8 +10262,12 @@
       <c r="H198">
         <v>136.279</v>
       </c>
-    </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I198">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>20</v>
       </c>
@@ -5117,8 +10289,12 @@
       <c r="H199">
         <v>425.69454545500002</v>
       </c>
-    </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I199">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>20</v>
       </c>
@@ -5140,8 +10316,12 @@
       <c r="H200">
         <v>607.31916666699999</v>
       </c>
-    </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I200">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>20</v>
       </c>
@@ -5163,8 +10343,12 @@
       <c r="H201">
         <v>775.74923076899995</v>
       </c>
-    </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I201">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>20</v>
       </c>
@@ -5186,8 +10370,12 @@
       <c r="H202">
         <v>919.33071428599999</v>
       </c>
-    </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I202">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>20</v>
       </c>
@@ -5209,8 +10397,12 @@
       <c r="H203">
         <v>1039.06333333</v>
       </c>
-    </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I203">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>20</v>
       </c>
@@ -5232,8 +10424,12 @@
       <c r="H204">
         <v>1045.605</v>
       </c>
-    </row>
-    <row r="205" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I204">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
         <v>9</v>
       </c>
@@ -5246,8 +10442,9 @@
       <c r="G205" s="1">
         <v>2509.8150000000001</v>
       </c>
-    </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I205"/>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>21</v>
       </c>
@@ -5269,8 +10466,12 @@
       <c r="H206">
         <v>1733.47</v>
       </c>
-    </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I206">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>21</v>
       </c>
@@ -5292,8 +10493,12 @@
       <c r="H207">
         <v>2024.41</v>
       </c>
-    </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I207">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>21</v>
       </c>
@@ -5315,8 +10520,12 @@
       <c r="H208">
         <v>46.44</v>
       </c>
-    </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I208">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>21</v>
       </c>
@@ -5338,8 +10547,12 @@
       <c r="H209">
         <v>-267.42750000000001</v>
       </c>
-    </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I209">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>21</v>
       </c>
@@ -5361,8 +10574,12 @@
       <c r="H210">
         <v>391.28199999999998</v>
       </c>
-    </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I210">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>21</v>
       </c>
@@ -5384,8 +10601,12 @@
       <c r="H211">
         <v>593.45166666700004</v>
       </c>
-    </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I211">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>21</v>
       </c>
@@ -5407,8 +10628,12 @@
       <c r="H212">
         <v>750.304285714</v>
       </c>
-    </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I212">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>21</v>
       </c>
@@ -5430,8 +10655,12 @@
       <c r="H213">
         <v>937.68875000000003</v>
       </c>
-    </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I213">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>21</v>
       </c>
@@ -5453,8 +10682,12 @@
       <c r="H214">
         <v>396.89</v>
       </c>
-    </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I214">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>21</v>
       </c>
@@ -5476,8 +10709,12 @@
       <c r="H215">
         <v>654.40899999999999</v>
       </c>
-    </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I215">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>21</v>
       </c>
@@ -5499,8 +10736,12 @@
       <c r="H216">
         <v>439.173636364</v>
       </c>
-    </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I216">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>21</v>
       </c>
@@ -5522,8 +10763,12 @@
       <c r="H217">
         <v>324.22916666700002</v>
       </c>
-    </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I217">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>21</v>
       </c>
@@ -5545,8 +10790,12 @@
       <c r="H218">
         <v>540.32153846200003</v>
       </c>
-    </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I218">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>21</v>
       </c>
@@ -5568,8 +10817,12 @@
       <c r="H219">
         <v>636.53214285700005</v>
       </c>
-    </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I219">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>21</v>
       </c>
@@ -5591,8 +10844,12 @@
       <c r="H220">
         <v>846.12333333300001</v>
       </c>
-    </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I220">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>21</v>
       </c>
@@ -5614,8 +10871,12 @@
       <c r="H221">
         <v>975.00250000000005</v>
       </c>
-    </row>
-    <row r="222" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I221">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
         <v>9</v>
       </c>
@@ -5628,8 +10889,9 @@
       <c r="G222" s="1">
         <v>2131.6506250000002</v>
       </c>
-    </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I222"/>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>29</v>
       </c>
@@ -5651,8 +10913,12 @@
       <c r="H223">
         <v>-11.99</v>
       </c>
-    </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I223">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>29</v>
       </c>
@@ -5674,8 +10940,12 @@
       <c r="H224">
         <v>-4107.6149999999998</v>
       </c>
-    </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I224">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>29</v>
       </c>
@@ -5697,8 +10967,12 @@
       <c r="H225">
         <v>-1915.63</v>
       </c>
-    </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I225">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>29</v>
       </c>
@@ -5720,8 +10994,12 @@
       <c r="H226">
         <v>-1010.4525</v>
       </c>
-    </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I226">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>29</v>
       </c>
@@ -5743,8 +11021,12 @@
       <c r="H227">
         <v>-143.44999999999999</v>
       </c>
-    </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I227">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>29</v>
       </c>
@@ -5766,8 +11048,12 @@
       <c r="H228">
         <v>91.648333333300002</v>
       </c>
-    </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I228">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>29</v>
       </c>
@@ -5789,8 +11075,12 @@
       <c r="H229">
         <v>161.198571429</v>
       </c>
-    </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I229">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>29</v>
       </c>
@@ -5812,8 +11102,12 @@
       <c r="H230">
         <v>380.33749999999998</v>
       </c>
-    </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I230">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>29</v>
       </c>
@@ -5835,8 +11129,12 @@
       <c r="H231">
         <v>404.60333333300002</v>
       </c>
-    </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I231">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>29</v>
       </c>
@@ -5858,8 +11156,12 @@
       <c r="H232">
         <v>547.30100000000004</v>
       </c>
-    </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I232">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>29</v>
       </c>
@@ -5881,8 +11183,12 @@
       <c r="H233">
         <v>635.29363636400001</v>
       </c>
-    </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I233">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>29</v>
       </c>
@@ -5904,8 +11210,12 @@
       <c r="H234">
         <v>727.01916666700004</v>
       </c>
-    </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I234">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>29</v>
       </c>
@@ -5927,8 +11237,12 @@
       <c r="H235">
         <v>841.18615384600002</v>
       </c>
-    </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I235">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>29</v>
       </c>
@@ -5950,8 +11264,12 @@
       <c r="H236">
         <v>910.87642857100002</v>
       </c>
-    </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I236">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>29</v>
       </c>
@@ -5973,8 +11291,12 @@
       <c r="H237">
         <v>995.5</v>
       </c>
-    </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I237">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>29</v>
       </c>
@@ -5996,8 +11318,12 @@
       <c r="H238">
         <v>869.18187499999999</v>
       </c>
-    </row>
-    <row r="239" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I238">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
         <v>9</v>
       </c>
@@ -6010,8 +11336,9 @@
       <c r="G239" s="1">
         <v>2661.1193750000002</v>
       </c>
-    </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I239"/>
+    </row>
+    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>22</v>
       </c>
@@ -6033,8 +11360,12 @@
       <c r="H240">
         <v>2116.83</v>
       </c>
-    </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I240">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>22</v>
       </c>
@@ -6056,8 +11387,12 @@
       <c r="H241">
         <v>2970.5149999999999</v>
       </c>
-    </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I241">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>22</v>
       </c>
@@ -6079,8 +11414,12 @@
       <c r="H242">
         <v>2047.44</v>
       </c>
-    </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I242">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>22</v>
       </c>
@@ -6102,8 +11441,12 @@
       <c r="H243">
         <v>2364.6424999999999</v>
       </c>
-    </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I243">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>22</v>
       </c>
@@ -6125,8 +11468,12 @@
       <c r="H244">
         <v>2585.5639999999999</v>
       </c>
-    </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I244">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>22</v>
       </c>
@@ -6148,8 +11495,12 @@
       <c r="H245">
         <v>2703.44</v>
       </c>
-    </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I245">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>22</v>
       </c>
@@ -6171,8 +11522,12 @@
       <c r="H246">
         <v>2123.56571429</v>
       </c>
-    </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I246">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>22</v>
       </c>
@@ -6194,8 +11549,12 @@
       <c r="H247">
         <v>1806.2474999999999</v>
       </c>
-    </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I247">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>22</v>
       </c>
@@ -6217,8 +11576,12 @@
       <c r="H248">
         <v>1929.91555556</v>
       </c>
-    </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I248">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>22</v>
       </c>
@@ -6240,8 +11603,12 @@
       <c r="H249">
         <v>1955.3140000000001</v>
       </c>
-    </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I249">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>22</v>
       </c>
@@ -6263,8 +11630,12 @@
       <c r="H250">
         <v>1812.62818182</v>
       </c>
-    </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I250">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>22</v>
       </c>
@@ -6286,8 +11657,12 @@
       <c r="H251">
         <v>1700.22666667</v>
       </c>
-    </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I251">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>22</v>
       </c>
@@ -6309,8 +11684,12 @@
       <c r="H252">
         <v>1457.57769231</v>
       </c>
-    </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I252">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>22</v>
       </c>
@@ -6332,8 +11711,12 @@
       <c r="H253">
         <v>1229.2978571399999</v>
       </c>
-    </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I253">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>22</v>
       </c>
@@ -6355,8 +11738,12 @@
       <c r="H254">
         <v>884.73133333299995</v>
       </c>
-    </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I254">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>22</v>
       </c>
@@ -6378,8 +11765,12 @@
       <c r="H255">
         <v>800.82</v>
       </c>
-    </row>
-    <row r="256" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I255">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="256" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
         <v>9</v>
       </c>
@@ -6392,8 +11783,9 @@
       <c r="G256" s="1">
         <v>2601.1224999999999</v>
       </c>
-    </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I256"/>
+    </row>
+    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>30</v>
       </c>
@@ -6415,8 +11807,12 @@
       <c r="H257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I257">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>30</v>
       </c>
@@ -6438,8 +11834,12 @@
       <c r="H258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I258">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>30</v>
       </c>
@@ -6461,8 +11861,12 @@
       <c r="H259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I259">
+        <f t="shared" ref="I259:I322" si="4">D259-612</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>30</v>
       </c>
@@ -6484,8 +11888,12 @@
       <c r="H260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I260">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>30</v>
       </c>
@@ -6507,8 +11915,12 @@
       <c r="H261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I261">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>30</v>
       </c>
@@ -6530,8 +11942,12 @@
       <c r="H262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I262">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>30</v>
       </c>
@@ -6553,8 +11969,12 @@
       <c r="H263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I263">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>30</v>
       </c>
@@ -6576,8 +11996,12 @@
       <c r="H264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I264">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>30</v>
       </c>
@@ -6599,8 +12023,12 @@
       <c r="H265">
         <v>-287.10777777800001</v>
       </c>
-    </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I265">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>30</v>
       </c>
@@ -6622,8 +12050,12 @@
       <c r="H266">
         <v>-186.596</v>
       </c>
-    </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I266">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>30</v>
       </c>
@@ -6645,8 +12077,12 @@
       <c r="H267">
         <v>-281.11636363600002</v>
       </c>
-    </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I267">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>30</v>
       </c>
@@ -6668,8 +12104,12 @@
       <c r="H268">
         <v>-207.940833333</v>
       </c>
-    </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I268">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>30</v>
       </c>
@@ -6691,8 +12131,12 @@
       <c r="H269">
         <v>-207.70461538500001</v>
       </c>
-    </row>
-    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I269">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>30</v>
       </c>
@@ -6714,8 +12158,12 @@
       <c r="H270">
         <v>-86.856428571400002</v>
       </c>
-    </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I270">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>30</v>
       </c>
@@ -6737,8 +12185,12 @@
       <c r="H271">
         <v>94.378666666699999</v>
       </c>
-    </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I271">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="272" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>30</v>
       </c>
@@ -6760,8 +12212,12 @@
       <c r="H272">
         <v>301.22687500000001</v>
       </c>
-    </row>
-    <row r="273" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I272">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="273" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
         <v>9</v>
       </c>
@@ -6774,8 +12230,9 @@
       <c r="G273" s="1">
         <v>3046.8175000000001</v>
       </c>
-    </row>
-    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I273"/>
+    </row>
+    <row r="274" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>23</v>
       </c>
@@ -6797,8 +12254,12 @@
       <c r="H274">
         <v>-82.8</v>
       </c>
-    </row>
-    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I274">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>23</v>
       </c>
@@ -6820,8 +12281,12 @@
       <c r="H275">
         <v>-1860.69</v>
       </c>
-    </row>
-    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I275">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>23</v>
       </c>
@@ -6843,8 +12308,12 @@
       <c r="H276">
         <v>-210.55333333300001</v>
       </c>
-    </row>
-    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I276">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>23</v>
       </c>
@@ -6866,8 +12335,12 @@
       <c r="H277">
         <v>514.29</v>
       </c>
-    </row>
-    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I277">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="278" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>23</v>
       </c>
@@ -6889,8 +12362,12 @@
       <c r="H278">
         <v>894.34199999999998</v>
       </c>
-    </row>
-    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I278">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>23</v>
       </c>
@@ -6912,8 +12389,12 @@
       <c r="H279">
         <v>1046.0050000000001</v>
       </c>
-    </row>
-    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I279">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="280" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>23</v>
       </c>
@@ -6935,8 +12416,12 @@
       <c r="H280">
         <v>542.99714285699997</v>
       </c>
-    </row>
-    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I280">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="281" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>23</v>
       </c>
@@ -6958,8 +12443,12 @@
       <c r="H281">
         <v>642.84124999999995</v>
       </c>
-    </row>
-    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I281">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="282" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>23</v>
       </c>
@@ -6981,8 +12470,12 @@
       <c r="H282">
         <v>310.78444444399997</v>
       </c>
-    </row>
-    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I282">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="283" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>23</v>
       </c>
@@ -7004,8 +12497,12 @@
       <c r="H283">
         <v>427.80200000000002</v>
       </c>
-    </row>
-    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I283">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="284" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>23</v>
       </c>
@@ -7027,8 +12524,12 @@
       <c r="H284">
         <v>589.16818181799999</v>
       </c>
-    </row>
-    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I284">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="285" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>23</v>
       </c>
@@ -7050,8 +12551,12 @@
       <c r="H285">
         <v>343.09166666700003</v>
       </c>
-    </row>
-    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I285">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="286" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>23</v>
       </c>
@@ -7073,8 +12578,12 @@
       <c r="H286">
         <v>502.13230769199998</v>
       </c>
-    </row>
-    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I286">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="287" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>23</v>
       </c>
@@ -7096,8 +12605,12 @@
       <c r="H287">
         <v>509.31</v>
       </c>
-    </row>
-    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I287">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="288" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>23</v>
       </c>
@@ -7119,8 +12632,12 @@
       <c r="H288">
         <v>619.45799999999997</v>
       </c>
-    </row>
-    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I288">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="289" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>23</v>
       </c>
@@ -7142,8 +12659,12 @@
       <c r="H289">
         <v>220.16374999999999</v>
       </c>
-    </row>
-    <row r="290" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I289">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="290" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
         <v>9</v>
       </c>
@@ -7156,8 +12677,9 @@
       <c r="G290" s="1">
         <v>3358.7068749999999</v>
       </c>
-    </row>
-    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I290"/>
+    </row>
+    <row r="291" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>24</v>
       </c>
@@ -7179,8 +12701,12 @@
       <c r="H291">
         <v>-1494.66</v>
       </c>
-    </row>
-    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I291">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>24</v>
       </c>
@@ -7202,8 +12728,12 @@
       <c r="H292">
         <v>-938.97</v>
       </c>
-    </row>
-    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I292">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>24</v>
       </c>
@@ -7225,8 +12755,12 @@
       <c r="H293">
         <v>-2259.30333333</v>
       </c>
-    </row>
-    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I293">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>24</v>
       </c>
@@ -7248,8 +12782,12 @@
       <c r="H294">
         <v>-1686.4949999999999</v>
       </c>
-    </row>
-    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I294">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>24</v>
       </c>
@@ -7271,8 +12809,12 @@
       <c r="H295">
         <v>-1141.5899999999999</v>
       </c>
-    </row>
-    <row r="296" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I295">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>24</v>
       </c>
@@ -7294,8 +12836,12 @@
       <c r="H296">
         <v>-721.90333333299998</v>
       </c>
-    </row>
-    <row r="297" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I296">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="297" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>24</v>
       </c>
@@ -7317,8 +12863,12 @@
       <c r="H297">
         <v>-549.18857142900004</v>
       </c>
-    </row>
-    <row r="298" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I297">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="298" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>24</v>
       </c>
@@ -7340,8 +12890,12 @@
       <c r="H298">
         <v>-480.54</v>
       </c>
-    </row>
-    <row r="299" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I298">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="299" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>24</v>
       </c>
@@ -7363,8 +12917,12 @@
       <c r="H299">
         <v>-986.65111111099998</v>
       </c>
-    </row>
-    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I299">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="300" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
         <v>24</v>
       </c>
@@ -7386,8 +12944,12 @@
       <c r="H300">
         <v>-686.87599999999998</v>
       </c>
-    </row>
-    <row r="301" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I300">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="301" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>24</v>
       </c>
@@ -7409,8 +12971,12 @@
       <c r="H301">
         <v>-592.67999999999995</v>
       </c>
-    </row>
-    <row r="302" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I301">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="302" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
         <v>24</v>
       </c>
@@ -7432,8 +12998,12 @@
       <c r="H302">
         <v>-372.59333333299998</v>
       </c>
-    </row>
-    <row r="303" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I302">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="303" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>24</v>
       </c>
@@ -7455,8 +13025,12 @@
       <c r="H303">
         <v>-46.383076923099999</v>
       </c>
-    </row>
-    <row r="304" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I303">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="304" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>24</v>
       </c>
@@ -7478,8 +13052,12 @@
       <c r="H304">
         <v>-80.954285714299999</v>
       </c>
-    </row>
-    <row r="305" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I304">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="305" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
         <v>24</v>
       </c>
@@ -7501,8 +13079,12 @@
       <c r="H305">
         <v>197.60066666700001</v>
       </c>
-    </row>
-    <row r="306" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I305">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="306" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
         <v>24</v>
       </c>
@@ -7524,8 +13106,12 @@
       <c r="H306">
         <v>123.816875</v>
       </c>
-    </row>
-    <row r="307" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I306">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="307" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B307" s="1" t="s">
         <v>9</v>
       </c>
@@ -7538,8 +13124,9 @@
       <c r="G307" s="1">
         <v>3410.4806250000001</v>
       </c>
-    </row>
-    <row r="308" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I307"/>
+    </row>
+    <row r="308" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>25</v>
       </c>
@@ -7561,8 +13148,12 @@
       <c r="H308">
         <v>-1014.53</v>
       </c>
-    </row>
-    <row r="309" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I308">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
         <v>25</v>
       </c>
@@ -7584,8 +13175,12 @@
       <c r="H309">
         <v>-1742.94</v>
       </c>
-    </row>
-    <row r="310" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I309">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>25</v>
       </c>
@@ -7607,8 +13202,12 @@
       <c r="H310">
         <v>18.61</v>
       </c>
-    </row>
-    <row r="311" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I310">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
         <v>25</v>
       </c>
@@ -7630,8 +13229,12 @@
       <c r="H311">
         <v>-1989.6949999999999</v>
       </c>
-    </row>
-    <row r="312" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I311">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
         <v>25</v>
       </c>
@@ -7653,8 +13256,12 @@
       <c r="H312">
         <v>-1458.1579999999999</v>
       </c>
-    </row>
-    <row r="313" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I312">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="313" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
         <v>25</v>
       </c>
@@ -7676,8 +13283,12 @@
       <c r="H313">
         <v>-1358.9449999999999</v>
       </c>
-    </row>
-    <row r="314" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I313">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="314" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
         <v>25</v>
       </c>
@@ -7699,8 +13310,12 @@
       <c r="H314">
         <v>-1607.95428571</v>
       </c>
-    </row>
-    <row r="315" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I314">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="315" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
         <v>25</v>
       </c>
@@ -7722,8 +13337,12 @@
       <c r="H315">
         <v>-1546.0050000000001</v>
       </c>
-    </row>
-    <row r="316" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I315">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="316" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
         <v>25</v>
       </c>
@@ -7745,8 +13364,12 @@
       <c r="H316">
         <v>-1873.3855555600001</v>
       </c>
-    </row>
-    <row r="317" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I316">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="317" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
         <v>25</v>
       </c>
@@ -7768,8 +13391,12 @@
       <c r="H317">
         <v>-1686.047</v>
       </c>
-    </row>
-    <row r="318" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I317">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="318" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
         <v>25</v>
       </c>
@@ -7791,8 +13418,12 @@
       <c r="H318">
         <v>-1344.80636364</v>
       </c>
-    </row>
-    <row r="319" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I318">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="319" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
         <v>25</v>
       </c>
@@ -7814,8 +13445,12 @@
       <c r="H319">
         <v>-1098.8066666699999</v>
       </c>
-    </row>
-    <row r="320" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I319">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="320" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
         <v>25</v>
       </c>
@@ -7837,8 +13472,12 @@
       <c r="H320">
         <v>-837.24076923099994</v>
       </c>
-    </row>
-    <row r="321" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I320">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="321" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
         <v>25</v>
       </c>
@@ -7860,8 +13499,12 @@
       <c r="H321">
         <v>-715.63928571400004</v>
       </c>
-    </row>
-    <row r="322" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I321">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="322" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
         <v>25</v>
       </c>
@@ -7883,8 +13526,12 @@
       <c r="H322">
         <v>-471.56733333300002</v>
       </c>
-    </row>
-    <row r="323" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I322">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="323" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
         <v>25</v>
       </c>
@@ -7906,8 +13553,12 @@
       <c r="H323">
         <v>-345.96</v>
       </c>
-    </row>
-    <row r="324" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I323">
+        <f t="shared" ref="I323:I374" si="5">D323-612</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="324" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B324" s="1" t="s">
         <v>9</v>
       </c>
@@ -7920,8 +13571,9 @@
       <c r="G324" s="1">
         <v>4014.4862499999999</v>
       </c>
-    </row>
-    <row r="325" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I324"/>
+    </row>
+    <row r="325" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
         <v>26</v>
       </c>
@@ -7943,8 +13595,12 @@
       <c r="H325">
         <v>1505.71</v>
       </c>
-    </row>
-    <row r="326" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I325">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
         <v>26</v>
       </c>
@@ -7966,8 +13622,12 @@
       <c r="H326">
         <v>840.85500000000002</v>
       </c>
-    </row>
-    <row r="327" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I326">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
         <v>26</v>
       </c>
@@ -7989,8 +13649,12 @@
       <c r="H327">
         <v>-4211.7</v>
       </c>
-    </row>
-    <row r="328" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I327">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
         <v>26</v>
       </c>
@@ -8012,8 +13676,12 @@
       <c r="H328">
         <v>-2932.0149999999999</v>
       </c>
-    </row>
-    <row r="329" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I328">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>26</v>
       </c>
@@ -8035,8 +13703,12 @@
       <c r="H329">
         <v>-2221.35</v>
       </c>
-    </row>
-    <row r="330" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I329">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="330" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
         <v>26</v>
       </c>
@@ -8058,8 +13730,12 @@
       <c r="H330">
         <v>-1550.19</v>
       </c>
-    </row>
-    <row r="331" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I330">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="331" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
         <v>26</v>
       </c>
@@ -8081,8 +13757,12 @@
       <c r="H331">
         <v>-877.33285714299996</v>
       </c>
-    </row>
-    <row r="332" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I331">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="332" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
         <v>26</v>
       </c>
@@ -8104,8 +13784,12 @@
       <c r="H332">
         <v>-538.02750000000003</v>
       </c>
-    </row>
-    <row r="333" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I332">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="333" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
         <v>26</v>
       </c>
@@ -8127,8 +13811,12 @@
       <c r="H333">
         <v>-816.26555555599998</v>
       </c>
-    </row>
-    <row r="334" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I333">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="334" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
         <v>26</v>
       </c>
@@ -8150,8 +13838,12 @@
       <c r="H334">
         <v>-1108.393</v>
       </c>
-    </row>
-    <row r="335" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I334">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="335" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
         <v>26</v>
       </c>
@@ -8173,8 +13865,12 @@
       <c r="H335">
         <v>-923.34</v>
       </c>
-    </row>
-    <row r="336" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I335">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="336" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
         <v>26</v>
       </c>
@@ -8196,8 +13892,12 @@
       <c r="H336">
         <v>-1102.1191666699999</v>
       </c>
-    </row>
-    <row r="337" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I336">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="337" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>26</v>
       </c>
@@ -8219,8 +13919,12 @@
       <c r="H337">
         <v>-1007.5138461499999</v>
       </c>
-    </row>
-    <row r="338" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I337">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="338" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>26</v>
       </c>
@@ -8242,8 +13946,12 @@
       <c r="H338">
         <v>-788.56214285700003</v>
       </c>
-    </row>
-    <row r="339" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I338">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="339" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
         <v>26</v>
       </c>
@@ -8265,8 +13973,12 @@
       <c r="H339">
         <v>-664.23</v>
       </c>
-    </row>
-    <row r="340" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I339">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="340" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
         <v>26</v>
       </c>
@@ -8288,8 +14000,12 @@
       <c r="H340">
         <v>-611.90750000000003</v>
       </c>
-    </row>
-    <row r="341" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I340">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="341" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B341" s="1" t="s">
         <v>9</v>
       </c>
@@ -8302,8 +14018,9 @@
       <c r="G341" s="1">
         <v>3834.7406249999999</v>
       </c>
-    </row>
-    <row r="342" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I341"/>
+    </row>
+    <row r="342" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
         <v>27</v>
       </c>
@@ -8325,8 +14042,12 @@
       <c r="H342">
         <v>239.92</v>
       </c>
-    </row>
-    <row r="343" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I342">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
         <v>27</v>
       </c>
@@ -8348,8 +14069,12 @@
       <c r="H343">
         <v>-1021.21</v>
       </c>
-    </row>
-    <row r="344" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I343">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
         <v>27</v>
       </c>
@@ -8371,8 +14096,12 @@
       <c r="H344">
         <v>315.29333333300002</v>
       </c>
-    </row>
-    <row r="345" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I344">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
         <v>27</v>
       </c>
@@ -8394,8 +14123,12 @@
       <c r="H345">
         <v>-1203.2175</v>
       </c>
-    </row>
-    <row r="346" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I345">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
         <v>27</v>
       </c>
@@ -8417,8 +14150,12 @@
       <c r="H346">
         <v>-1413.172</v>
       </c>
-    </row>
-    <row r="347" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I346">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="347" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
         <v>27</v>
       </c>
@@ -8440,8 +14177,12 @@
       <c r="H347">
         <v>-1049.8599999999999</v>
       </c>
-    </row>
-    <row r="348" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I347">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="348" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
         <v>27</v>
       </c>
@@ -8463,8 +14204,12 @@
       <c r="H348">
         <v>-609</v>
       </c>
-    </row>
-    <row r="349" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I348">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="349" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
         <v>27</v>
       </c>
@@ -8486,8 +14231,12 @@
       <c r="H349">
         <v>-380.1875</v>
       </c>
-    </row>
-    <row r="350" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I349">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="350" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
         <v>27</v>
       </c>
@@ -8509,8 +14258,12 @@
       <c r="H350">
         <v>-829.78444444399997</v>
       </c>
-    </row>
-    <row r="351" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I350">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="351" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
         <v>27</v>
       </c>
@@ -8532,8 +14285,12 @@
       <c r="H351">
         <v>-624.33799999999997</v>
       </c>
-    </row>
-    <row r="352" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I351">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="352" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
         <v>27</v>
       </c>
@@ -8555,8 +14312,12 @@
       <c r="H352">
         <v>-988.75909090899995</v>
       </c>
-    </row>
-    <row r="353" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I352">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="353" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
         <v>27</v>
       </c>
@@ -8578,8 +14339,12 @@
       <c r="H353">
         <v>-1072.0999999999999</v>
       </c>
-    </row>
-    <row r="354" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I353">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="354" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
         <v>27</v>
       </c>
@@ -8601,8 +14366,12 @@
       <c r="H354">
         <v>-757.28461538500005</v>
       </c>
-    </row>
-    <row r="355" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I354">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="355" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>27</v>
       </c>
@@ -8624,8 +14393,12 @@
       <c r="H355">
         <v>-717.18499999999995</v>
       </c>
-    </row>
-    <row r="356" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I355">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="356" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
         <v>27</v>
       </c>
@@ -8647,8 +14420,12 @@
       <c r="H356">
         <v>-701.73599999999999</v>
       </c>
-    </row>
-    <row r="357" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I356">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="357" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
         <v>27</v>
       </c>
@@ -8670,8 +14447,12 @@
       <c r="H357">
         <v>-694.87687500000004</v>
       </c>
-    </row>
-    <row r="358" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I357">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="358" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B358" s="1" t="s">
         <v>9</v>
       </c>
@@ -8684,8 +14465,9 @@
       <c r="G358" s="1">
         <v>3885.2925</v>
       </c>
-    </row>
-    <row r="359" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I358"/>
+    </row>
+    <row r="359" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
         <v>28</v>
       </c>
@@ -8707,8 +14489,12 @@
       <c r="H359">
         <v>-2531.09</v>
       </c>
-    </row>
-    <row r="360" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I359">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
         <v>28</v>
       </c>
@@ -8730,8 +14516,12 @@
       <c r="H360">
         <v>-278.91500000000002</v>
       </c>
-    </row>
-    <row r="361" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I360">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
         <v>28</v>
       </c>
@@ -8753,8 +14543,12 @@
       <c r="H361">
         <v>-1739.15</v>
       </c>
-    </row>
-    <row r="362" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I361">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="362" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
         <v>28</v>
       </c>
@@ -8776,8 +14570,12 @@
       <c r="H362">
         <v>-2385.5450000000001</v>
       </c>
-    </row>
-    <row r="363" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I362">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="363" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
         <v>28</v>
       </c>
@@ -8799,8 +14597,12 @@
       <c r="H363">
         <v>-2276.288</v>
       </c>
-    </row>
-    <row r="364" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I363">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="364" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
         <v>28</v>
       </c>
@@ -8822,8 +14624,12 @@
       <c r="H364">
         <v>-9216.7749999999996</v>
       </c>
-    </row>
-    <row r="365" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I364">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="365" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
         <v>28</v>
       </c>
@@ -8845,8 +14651,12 @@
       <c r="H365">
         <v>-8076.7428571399996</v>
       </c>
-    </row>
-    <row r="366" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I365">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="366" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
         <v>28</v>
       </c>
@@ -8868,8 +14678,12 @@
       <c r="H366">
         <v>-7062.2312499999998</v>
       </c>
-    </row>
-    <row r="367" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I366">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="367" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
         <v>28</v>
       </c>
@@ -8891,8 +14705,12 @@
       <c r="H367">
         <v>-6096.0877777799997</v>
       </c>
-    </row>
-    <row r="368" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I367">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="368" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
         <v>28</v>
       </c>
@@ -8914,8 +14732,12 @@
       <c r="H368">
         <v>-5499.5910000000003</v>
       </c>
-    </row>
-    <row r="369" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I368">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="369" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
         <v>28</v>
       </c>
@@ -8937,8 +14759,12 @@
       <c r="H369">
         <v>-4718.4709090899996</v>
       </c>
-    </row>
-    <row r="370" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I369">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="370" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
         <v>28</v>
       </c>
@@ -8960,8 +14786,12 @@
       <c r="H370">
         <v>-4302.0275000000001</v>
       </c>
-    </row>
-    <row r="371" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I370">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="371" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
         <v>28</v>
       </c>
@@ -8983,8 +14813,12 @@
       <c r="H371">
         <v>-3818.9346153800002</v>
       </c>
-    </row>
-    <row r="372" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I371">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="372" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
         <v>28</v>
       </c>
@@ -9006,8 +14840,12 @@
       <c r="H372">
         <v>-3456.1178571400001</v>
       </c>
-    </row>
-    <row r="373" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I372">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="373" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
         <v>28</v>
       </c>
@@ -9029,8 +14867,12 @@
       <c r="H373">
         <v>-3132.20533333</v>
       </c>
-    </row>
-    <row r="374" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I373">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="374" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
         <v>28</v>
       </c>
@@ -9052,8 +14894,12 @@
       <c r="H374">
         <v>-2747.183125</v>
       </c>
-    </row>
-    <row r="375" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I374">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="375" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B375" s="1" t="s">
         <v>9</v>
       </c>
@@ -9070,5 +14916,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/report/stats.xlsx
+++ b/report/stats.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fuzzy Dingo\Documents\COMP6203\AgentElman\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Java\AgentElman\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="38">
   <si>
     <t>Game</t>
   </si>
@@ -121,12 +121,30 @@
   <si>
     <t>Agent Name</t>
   </si>
+  <si>
+    <t>Statistic</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +167,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,12 +211,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -246,7 +272,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -388,7 +414,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -530,7 +556,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -672,7 +698,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -814,7 +840,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -956,7 +982,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -1098,11 +1124,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1227,6 +1251,389 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$121</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cortana</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$121:$H$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2227.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2090.3200000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2070.5466666699999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2120.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2228.4079999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2427.1333333299999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2371.82857143</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2177.21875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2058.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989.7090000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1805.6509090899999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1981.59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1974.85384615</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1914.1014285700001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2007.7093333299999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2124.8156250000002</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$138</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>westridge</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$138:$I$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$138:$H$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1708.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.495000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-41.723333333299998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.0175000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-195.292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>419.78166666700002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>765.62142857100002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>929.49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>687.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>849.12900000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1059.48909091</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>883.44749999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1078.99692308</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1139.78285714</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1286.556</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1351.8575000000001</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$155</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AbsMTree</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$155:$I$170</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$155:$H$170</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1551.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-818.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-490.563333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>299.90249999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>551.92200000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>488.99833333300001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>833.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>875.40499999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>957.61111111100001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1115.67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1144.9718181799999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1220.6775</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1413.9715384599999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1421.5214285699999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1416.6066666700001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1335.2850000000001</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1235,439 +1642,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="376006160"/>
-        <c:axId val="376003360"/>
+        <c:axId val="157881072"/>
+        <c:axId val="157881632"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$121</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Cortana</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$121:$H$136</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                      <c:pt idx="0">
-                        <c:v>2227.35</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2090.3200000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2070.5466666699999</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2120.4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2228.4079999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2427.1333333299999</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>2371.82857143</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>2177.21875</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>2058.4</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1989.7090000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1805.6509090899999</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>1981.59</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1974.85384615</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1914.1014285700001</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>2007.7093333299999</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2124.8156250000002</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="8"/>
-                <c:order val="8"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$138</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>westridge</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$138:$I$153</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                      <c:pt idx="0">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>21</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>28</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>29</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>34</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>38</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>42</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>43</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$138:$H$153</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                      <c:pt idx="0">
-                        <c:v>1708.04</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>67.495000000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>-41.723333333299998</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>-4.0175000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>-195.292</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>419.78166666700002</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>765.62142857100002</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>929.49</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>687.34</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>849.12900000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1059.48909091</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>883.44749999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1078.99692308</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1139.78285714</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1286.556</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1351.8575000000001</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="9"/>
-                <c:order val="9"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$155</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>AbsMTree</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$155:$I$170</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>26</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>33</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>36</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>37</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>43</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>44</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$155:$H$170</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="16"/>
-                      <c:pt idx="0">
-                        <c:v>1551.27</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>-818.78</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>-490.563333333</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>299.90249999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>551.92200000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>488.99833333300001</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>833.89</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>875.40499999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>957.61111111100001</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1115.67</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1144.9718181799999</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>1220.6775</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1413.9715384599999</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1421.5214285699999</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1416.6066666700001</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1335.2850000000001</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="10"/>
@@ -1675,7 +1653,7 @@
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$172</c15:sqref>
                         </c15:formulaRef>
@@ -1690,7 +1668,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="22225" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent5">
                         <a:lumMod val="60000"/>
@@ -1706,7 +1684,7 @@
                 <c:xVal>
                   <c:numRef>
                     <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$172:$I$187</c15:sqref>
                         </c15:formulaRef>
@@ -1769,7 +1747,7 @@
                 <c:yVal>
                   <c:numRef>
                     <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$172:$H$187</c15:sqref>
                         </c15:formulaRef>
@@ -1838,7 +1816,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$189</c15:sqref>
@@ -1854,7 +1832,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="22225" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent6">
                         <a:lumMod val="60000"/>
@@ -1869,7 +1847,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$189:$I$204</c15:sqref>
@@ -1932,7 +1910,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$189:$H$204</c15:sqref>
@@ -2002,7 +1980,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$206</c15:sqref>
@@ -2018,7 +1996,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="22225" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent1">
                         <a:lumMod val="80000"/>
@@ -2034,7 +2012,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$206:$I$221</c15:sqref>
@@ -2097,7 +2075,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$206:$H$221</c15:sqref>
@@ -2167,7 +2145,7 @@
                 <c:order val="13"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$223</c15:sqref>
@@ -2183,7 +2161,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="22225" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent2">
                         <a:lumMod val="80000"/>
@@ -2199,7 +2177,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$223:$I$238</c15:sqref>
@@ -2262,7 +2240,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$223:$H$238</c15:sqref>
@@ -2332,7 +2310,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$240</c15:sqref>
@@ -2348,7 +2326,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="22225" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent3">
                         <a:lumMod val="80000"/>
@@ -2364,7 +2342,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$240:$I$255</c15:sqref>
@@ -2427,7 +2405,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$240:$H$255</c15:sqref>
@@ -2497,7 +2475,7 @@
                 <c:order val="15"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$257</c15:sqref>
@@ -2513,7 +2491,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="22225" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent4">
                         <a:lumMod val="80000"/>
@@ -2529,7 +2507,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$257:$I$272</c15:sqref>
@@ -2592,7 +2570,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$257:$H$272</c15:sqref>
@@ -2662,7 +2640,7 @@
                 <c:order val="16"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$274</c15:sqref>
@@ -2678,7 +2656,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="22225" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent5">
                         <a:lumMod val="80000"/>
@@ -2694,7 +2672,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$274:$I$289</c15:sqref>
@@ -2757,7 +2735,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$274:$H$289</c15:sqref>
@@ -2827,7 +2805,7 @@
                 <c:order val="17"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$291</c15:sqref>
@@ -2843,7 +2821,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="22225" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent6">
                         <a:lumMod val="80000"/>
@@ -2859,7 +2837,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$291:$I$306</c15:sqref>
@@ -2922,7 +2900,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$291:$H$306</c15:sqref>
@@ -2992,7 +2970,7 @@
                 <c:order val="18"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$308</c15:sqref>
@@ -3008,7 +2986,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="22225" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent1">
                         <a:lumMod val="80000"/>
@@ -3023,7 +3001,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$308:$I$323</c15:sqref>
@@ -3086,7 +3064,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$308:$H$323</c15:sqref>
@@ -3156,7 +3134,7 @@
                 <c:order val="19"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$325</c15:sqref>
@@ -3172,7 +3150,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="22225" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent2">
                         <a:lumMod val="80000"/>
@@ -3187,7 +3165,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$325:$I$340</c15:sqref>
@@ -3250,7 +3228,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$325:$H$340</c15:sqref>
@@ -3320,7 +3298,7 @@
                 <c:order val="20"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$342</c15:sqref>
@@ -3336,7 +3314,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="22225" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent3">
                         <a:lumMod val="80000"/>
@@ -3351,7 +3329,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$342:$I$357</c15:sqref>
@@ -3414,7 +3392,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$342:$H$357</c15:sqref>
@@ -3484,7 +3462,7 @@
                 <c:order val="21"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$359</c15:sqref>
@@ -3500,7 +3478,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="19050" cap="rnd">
+                  <a:ln w="22225" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent4">
                         <a:lumMod val="80000"/>
@@ -3515,7 +3493,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$359:$I$374</c15:sqref>
@@ -3578,7 +3556,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$359:$H$374</c15:sqref>
@@ -3646,7 +3624,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="376006160"/>
+        <c:axId val="157881072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3674,9 +3652,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3703,12 +3681,705 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376003360"/>
+        <c:crossAx val="157881632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="376003360"/>
+        <c:axId val="157881632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="157881072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Scores</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> for Agent Elman</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$104:$E$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3640.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2517.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3108.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3133.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>787.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3029.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3113.59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1601.57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-227.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1183.4100000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>611.42999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>674.42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2451.2199999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3657</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4475.46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>703.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="785785744"/>
+        <c:axId val="785787424"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="785785744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="785787424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="785787424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="785785744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Mean Agent Scores</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>3310.2618750000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3099.5756249999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2698.1581249999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2659.6350000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2492.5543750000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2367.6750000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2153.8125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2124.8156250000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1351.8575000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1335.2850000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1250.8143749999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1045.605</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>975.00250000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>869.18187499999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800.82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>301.22687500000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>220.16374999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>123.816875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-345.96</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-611.90750000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-694.87687500000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2747.183125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="787003840"/>
+        <c:axId val="785429408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="787003840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="785429408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="785429408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3765,7 +4436,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376006160"/>
+        <c:crossAx val="787003840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3777,38 +4448,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3886,7 +4525,1110 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4434,13 +6176,73 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>985836</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Really Colourful">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4700,10 +6502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M375"/>
+  <dimension ref="A1:T375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B142" workbookViewId="0">
-      <selection activeCell="U165" sqref="U165"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4716,7 +6518,7 @@
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4745,7 +6547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4780,8 +6582,11 @@
       <c r="M2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O2" s="1">
+        <v>3310.2618750000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4816,8 +6621,11 @@
       <c r="M3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O3" s="1">
+        <v>3099.5756249999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -4852,8 +6660,11 @@
       <c r="M4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O4" s="1">
+        <v>2698.1581249999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4888,8 +6699,11 @@
       <c r="M5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O5" s="1">
+        <v>2659.6350000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4924,8 +6738,11 @@
       <c r="M6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O6" s="1">
+        <v>2492.5543750000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -4960,8 +6777,11 @@
       <c r="M7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O7" s="1">
+        <v>2367.6750000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -4996,8 +6816,11 @@
       <c r="M8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O8" s="1">
+        <v>2153.8125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -5032,8 +6855,11 @@
       <c r="M9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O9" s="1">
+        <v>2124.8156250000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -5068,8 +6894,11 @@
       <c r="M10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O10" s="1">
+        <v>1351.8575000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -5104,8 +6933,11 @@
       <c r="M11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O11" s="1">
+        <v>1335.2850000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5140,8 +6972,11 @@
       <c r="M12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O12" s="1">
+        <v>1250.8143749999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5176,8 +7011,11 @@
       <c r="M13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O13" s="1">
+        <v>1045.605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5212,8 +7050,11 @@
       <c r="M14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O14" s="1">
+        <v>975.00250000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -5248,8 +7089,11 @@
       <c r="M15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O15" s="1">
+        <v>869.18187499999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -5284,8 +7128,11 @@
       <c r="M16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O16" s="1">
+        <v>800.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -5320,8 +7167,11 @@
       <c r="M17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="1">
+        <v>301.22687500000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -5341,8 +7191,11 @@
       <c r="M18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O18" s="1">
+        <v>220.16374999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -5374,8 +7227,11 @@
       <c r="M19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O19" s="1">
+        <v>123.816875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -5407,8 +7263,11 @@
       <c r="M20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O20" s="1">
+        <v>-345.96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -5440,8 +7299,11 @@
       <c r="M21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O21" s="1">
+        <v>-611.90750000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -5473,8 +7335,11 @@
       <c r="M22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O22" s="1">
+        <v>-694.87687500000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -5506,8 +7371,11 @@
       <c r="M23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O23" s="1">
+        <v>-2747.183125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -5540,7 +7408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -5573,7 +7441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -5606,7 +7474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -5639,7 +7507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -5672,7 +7540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -5705,7 +7573,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -5738,7 +7606,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -5771,7 +7639,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -8005,7 +9873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>7</v>
       </c>
@@ -8032,7 +9900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>7</v>
       </c>
@@ -8059,7 +9927,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>7</v>
       </c>
@@ -8086,7 +9954,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>7</v>
       </c>
@@ -8113,7 +9981,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>7</v>
       </c>
@@ -8140,7 +10008,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>7</v>
       </c>
@@ -8166,8 +10034,29 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N118" t="s">
+        <v>32</v>
+      </c>
+      <c r="O118" t="s">
+        <v>7</v>
+      </c>
+      <c r="P118" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>7</v>
+      </c>
+      <c r="R118" t="s">
+        <v>11</v>
+      </c>
+      <c r="S118" t="s">
+        <v>7</v>
+      </c>
+      <c r="T118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>7</v>
       </c>
@@ -8193,8 +10082,32 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="120" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N119" t="s">
+        <v>33</v>
+      </c>
+      <c r="O119">
+        <v>2484.4450000000002</v>
+      </c>
+      <c r="P119">
+        <f>(3203.03+3555.44)/2</f>
+        <v>3379.2350000000001</v>
+      </c>
+      <c r="Q119">
+        <v>2484.4450000000002</v>
+      </c>
+      <c r="R119">
+        <f>(3203.03+3555.44)/2</f>
+        <v>3379.2350000000001</v>
+      </c>
+      <c r="S119">
+        <v>2484.4450000000002</v>
+      </c>
+      <c r="T119">
+        <f>(3203.03+3555.44)/2</f>
+        <v>3379.2350000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>9</v>
       </c>
@@ -8208,8 +10121,29 @@
         <v>1002.055625</v>
       </c>
       <c r="I120"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N120" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O120" s="3">
+        <v>745.35</v>
+      </c>
+      <c r="P120" s="4">
+        <v>2840.2750000000001</v>
+      </c>
+      <c r="Q120" s="3">
+        <v>745.35</v>
+      </c>
+      <c r="R120" s="4">
+        <v>2840.2750000000001</v>
+      </c>
+      <c r="S120" s="3">
+        <v>745.35</v>
+      </c>
+      <c r="T120" s="4">
+        <v>2840.2750000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>17</v>
       </c>
@@ -8235,8 +10169,29 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N121" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O121">
+        <v>-227.45</v>
+      </c>
+      <c r="P121">
+        <v>1751.04</v>
+      </c>
+      <c r="Q121">
+        <v>-227.45</v>
+      </c>
+      <c r="R121">
+        <v>1751.04</v>
+      </c>
+      <c r="S121">
+        <v>-227.45</v>
+      </c>
+      <c r="T121">
+        <v>1751.04</v>
+      </c>
+    </row>
+    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>17</v>
       </c>
@@ -8262,8 +10217,35 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K122">
+        <v>1751.04</v>
+      </c>
+      <c r="L122">
+        <v>-227.45</v>
+      </c>
+      <c r="N122" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O122">
+        <v>4475.46</v>
+      </c>
+      <c r="P122">
+        <v>4316.2299999999996</v>
+      </c>
+      <c r="Q122">
+        <v>4475.46</v>
+      </c>
+      <c r="R122">
+        <v>4316.2299999999996</v>
+      </c>
+      <c r="S122">
+        <v>4475.46</v>
+      </c>
+      <c r="T122">
+        <v>4316.2299999999996</v>
+      </c>
+    </row>
+    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>17</v>
       </c>
@@ -8289,8 +10271,35 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K123">
+        <v>2365.87</v>
+      </c>
+      <c r="L123">
+        <v>611.42999999999995</v>
+      </c>
+      <c r="N123" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O123">
+        <v>3123.5349999999999</v>
+      </c>
+      <c r="P123" s="4">
+        <v>3822.09</v>
+      </c>
+      <c r="Q123">
+        <v>3123.5349999999999</v>
+      </c>
+      <c r="R123" s="4">
+        <v>3822.09</v>
+      </c>
+      <c r="S123">
+        <v>3123.5349999999999</v>
+      </c>
+      <c r="T123" s="4">
+        <v>3822.09</v>
+      </c>
+    </row>
+    <row r="124" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>17</v>
       </c>
@@ -8316,8 +10325,14 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K124">
+        <v>2662.66</v>
+      </c>
+      <c r="L124">
+        <v>674.42</v>
+      </c>
+    </row>
+    <row r="125" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>17</v>
       </c>
@@ -8343,8 +10358,14 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K125">
+        <v>2756.96</v>
+      </c>
+      <c r="L125">
+        <v>703.02</v>
+      </c>
+    </row>
+    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>17</v>
       </c>
@@ -8370,8 +10391,14 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K126">
+        <v>2923.59</v>
+      </c>
+      <c r="L126">
+        <v>787.68</v>
+      </c>
+    </row>
+    <row r="127" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>17</v>
       </c>
@@ -8397,8 +10424,14 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K127">
+        <v>2968.19</v>
+      </c>
+      <c r="L127">
+        <v>1183.4100000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>17</v>
       </c>
@@ -8424,8 +10457,14 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K128">
+        <v>3180.74</v>
+      </c>
+      <c r="L128">
+        <v>1601.57</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>17</v>
       </c>
@@ -8451,8 +10490,14 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K129">
+        <v>3203.03</v>
+      </c>
+      <c r="L129">
+        <v>2451.2199999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>17</v>
       </c>
@@ -8478,8 +10523,14 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K130">
+        <v>3555.44</v>
+      </c>
+      <c r="L130">
+        <v>2517.67</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>17</v>
       </c>
@@ -8505,8 +10556,14 @@
         <f t="shared" ref="I131:I194" si="2">D131-612</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K131">
+        <v>3670.28</v>
+      </c>
+      <c r="L131">
+        <v>3029.65</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>17</v>
       </c>
@@ -8532,8 +10589,14 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K132">
+        <v>3777.68</v>
+      </c>
+      <c r="L132">
+        <v>3108.83</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>17</v>
       </c>
@@ -8559,8 +10622,14 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K133">
+        <v>3815.79</v>
+      </c>
+      <c r="L133">
+        <v>3113.59</v>
+      </c>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>17</v>
       </c>
@@ -8586,8 +10655,14 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K134">
+        <v>3828.39</v>
+      </c>
+      <c r="L134">
+        <v>3133.48</v>
+      </c>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>17</v>
       </c>
@@ -8613,8 +10688,14 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K135">
+        <v>4037.86</v>
+      </c>
+      <c r="L135">
+        <v>3640.02</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>17</v>
       </c>
@@ -8640,8 +10721,14 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="137" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K136">
+        <v>4150.4399999999996</v>
+      </c>
+      <c r="L136">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>9</v>
       </c>
@@ -8655,8 +10742,14 @@
         <v>1226.34375</v>
       </c>
       <c r="I137"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K137">
+        <v>4316.2299999999996</v>
+      </c>
+      <c r="L137">
+        <v>4475.46</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>8</v>
       </c>
@@ -8683,7 +10776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>8</v>
       </c>
@@ -8710,7 +10803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>8</v>
       </c>
@@ -8737,7 +10830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>8</v>
       </c>
@@ -8764,7 +10857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>8</v>
       </c>
@@ -8791,7 +10884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>8</v>
       </c>
@@ -8818,7 +10911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>8</v>
       </c>
@@ -14914,6 +17007,10 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="K122:K137">
+    <sortCondition ref="K122"/>
+  </sortState>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/report/stats.xlsx
+++ b/report/stats.xlsx
@@ -1642,8 +1642,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157881072"/>
-        <c:axId val="157881632"/>
+        <c:axId val="169960624"/>
+        <c:axId val="169961184"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -3624,7 +3624,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="157881072"/>
+        <c:axId val="169960624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3681,12 +3681,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157881632"/>
+        <c:crossAx val="169961184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157881632"/>
+        <c:axId val="169961184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3743,7 +3743,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157881072"/>
+        <c:crossAx val="169960624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3757,7 +3757,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3869,7 +3868,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3987,11 +3985,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="785785744"/>
-        <c:axId val="785787424"/>
+        <c:axId val="169963984"/>
+        <c:axId val="171048496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="785785744"/>
+        <c:axId val="169963984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4034,7 +4032,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="785787424"/>
+        <c:crossAx val="171048496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4042,7 +4040,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="785787424"/>
+        <c:axId val="171048496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4093,7 +4091,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="785785744"/>
+        <c:crossAx val="169963984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4347,11 +4345,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="787003840"/>
-        <c:axId val="785429408"/>
+        <c:axId val="171051296"/>
+        <c:axId val="171051856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="787003840"/>
+        <c:axId val="171051296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4374,12 +4372,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="785429408"/>
+        <c:crossAx val="171051856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="785429408"/>
+        <c:axId val="171051856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4436,9 +4434,342 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="787003840"/>
+        <c:crossAx val="171051296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$X$7:$X$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$7:$W$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="678448608"/>
+        <c:axId val="678448048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="678448608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678448048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="678448048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678448608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4566,6 +4897,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6144,6 +6515,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6231,6 +7118,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6502,10 +7419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T375"/>
+  <dimension ref="A1:X375"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6518,7 +7435,7 @@
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -6547,7 +7464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -6586,7 +7503,7 @@
         <v>3310.2618750000001</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6625,7 +7542,7 @@
         <v>3099.5756249999999</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -6664,7 +7581,7 @@
         <v>2698.1581249999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -6703,7 +7620,7 @@
         <v>2659.6350000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -6742,7 +7659,7 @@
         <v>2492.5543750000002</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -6780,8 +7697,14 @@
       <c r="O7" s="1">
         <v>2367.6750000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W7">
+        <v>130</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -6819,8 +7742,14 @@
       <c r="O8" s="1">
         <v>2153.8125</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W8">
+        <v>130</v>
+      </c>
+      <c r="X8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -6858,8 +7787,14 @@
       <c r="O9" s="1">
         <v>2124.8156250000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W9">
+        <v>130</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -6897,8 +7832,14 @@
       <c r="O10" s="1">
         <v>1351.8575000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W10">
+        <v>130</v>
+      </c>
+      <c r="X10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -6936,8 +7877,14 @@
       <c r="O11" s="1">
         <v>1335.2850000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W11">
+        <v>129</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6975,8 +7922,14 @@
       <c r="O12" s="1">
         <v>1250.8143749999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W12">
+        <v>128</v>
+      </c>
+      <c r="X12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -7014,8 +7967,14 @@
       <c r="O13" s="1">
         <v>1045.605</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W13">
+        <v>127</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -7053,8 +8012,14 @@
       <c r="O14" s="1">
         <v>975.00250000000005</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W14">
+        <v>125</v>
+      </c>
+      <c r="X14">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -7092,8 +8057,14 @@
       <c r="O15" s="1">
         <v>869.18187499999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W15">
+        <v>122</v>
+      </c>
+      <c r="X15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -7131,8 +8102,14 @@
       <c r="O16" s="1">
         <v>800.82</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W16">
+        <v>119</v>
+      </c>
+      <c r="X16">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -7170,8 +8147,14 @@
       <c r="O17" s="1">
         <v>301.22687500000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W17">
+        <v>115</v>
+      </c>
+      <c r="X17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -7194,8 +8177,14 @@
       <c r="O18" s="1">
         <v>220.16374999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W18" s="1">
+        <v>111</v>
+      </c>
+      <c r="X18" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -7230,8 +8219,14 @@
       <c r="O19" s="1">
         <v>123.816875</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <v>105</v>
+      </c>
+      <c r="X19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -7266,8 +8261,14 @@
       <c r="O20" s="1">
         <v>-345.96</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W20">
+        <v>98</v>
+      </c>
+      <c r="X20">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -7302,8 +8303,14 @@
       <c r="O21" s="1">
         <v>-611.90750000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W21">
+        <v>90</v>
+      </c>
+      <c r="X21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -7338,8 +8345,14 @@
       <c r="O22" s="1">
         <v>-694.87687500000004</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W22">
+        <v>81</v>
+      </c>
+      <c r="X22">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -7374,8 +8387,14 @@
       <c r="O23" s="1">
         <v>-2747.183125</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W23">
+        <v>81</v>
+      </c>
+      <c r="X23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -7407,8 +8426,14 @@
       <c r="M24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W24">
+        <v>81</v>
+      </c>
+      <c r="X24">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -7440,8 +8465,14 @@
       <c r="M25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="W25">
+        <v>81</v>
+      </c>
+      <c r="X25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -7474,7 +8505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -7507,7 +8538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -7540,7 +8571,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -7573,7 +8604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -7606,7 +8637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -7639,7 +8670,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
